--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2600370210015</v>
+        <v>1574.793133808735</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.45364018857073</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.594120315535767</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.55000000000733</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553867</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.57537733795152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,160 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.505</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.055</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.01</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.785</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.805</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.31</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.995</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000007</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000007</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000007</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000007</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000007</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.41</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.505</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.055</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.505</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.055</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.985000000000738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.230000000000729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.165000000000727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.630000000000734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.49500000000073</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2124,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2135,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2146,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2157,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,10 +2168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1970,10 +2179,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1981,10 +2190,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1992,10 +2201,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2003,12 +2212,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
